--- a/biology/Médecine/Classe_ATC_A16/Classe_ATC_A16.xlsx
+++ b/biology/Médecine/Classe_ATC_A16/Classe_ATC_A16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A16, dénommée « Autres produits liés au tractus digestif et au métabolisme », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1][2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A16, dénommée « Autres produits liés au tractus digestif et au métabolisme », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,17 +525,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A16AA Acides aminés et dérivés
-A16AA01 Lévocarnitine
+          <t>A16AA Acides aminés et dérivés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A16AA01 Lévocarnitine
 A16AA02 Adémétionine
 A16AA03 Lévoglutamide
 A16AA04 Mercaptamine
 A16AA05 Acide carglumique
 A16AA06 Bétaïne
 A16AA07 Métréleptine
-« QA16AA51 » Lévocarnitine, associations
-A16AB Enzymes
-A16AB01 Alglucérase
+« QA16AA51 » Lévocarnitine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A16A Autres produits pour les voies digestives et le métabolisme</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A16AB Enzymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A16AB01 Alglucérase
 A16AB02 Imiglucérase
 A16AB03 alpha-agalsidase
 A16AB04 bêta-agalsidase
@@ -540,9 +591,43 @@
 A16AB15 Velmanase alfa
 A16AB16 Idursulfase beta
 A16AB17 Cerliponase alfa
-A16AB18 Vestronidase alfa
-A16AX Produits divers pour le tube digestif et le métabolisme
-A16AX01 Acide thioctique
+A16AB18 Vestronidase alfa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A16</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A16A Autres produits pour les voies digestives et le métabolisme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A16AX Produits divers pour le tube digestif et le métabolisme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A16AX01 Acide thioctique
 A16AX02 Anéthole trithione
 A16AX03 Phénylbutyrate de sodium
 A16AX04 Nitisinone
@@ -559,34 +644,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Classe_ATC_A16</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_A16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>QA16Q Autres produits pour les voies digestives et le métabolisme à usage vétérinaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>QA16QA Médicaments pour la prévention et/ou le traitement de l'acétonemie
-« QA16QA01 » Propylène glycol
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>QA16QA Médicaments pour la prévention et/ou le traitement de l'acétonemie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« QA16QA01 » Propylène glycol
 « QA16QA02 » Propanoate de sodium
 « QA16QA03 » Glycérol
 « QA16QA04 » Lactate d'ammonium
